--- a/2025 cepesas/2025-sny-CEDAS.xlsx
+++ b/2025 cepesas/2025-sny-CEDAS.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\2025 cepesas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87395CF-0C58-4EED-8F55-D5B0327F2693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BEA8E2-E7B3-4F59-BFC5-FCC885070642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="25_02" sheetId="42" r:id="rId1"/>
-    <sheet name="25_01" sheetId="41" r:id="rId2"/>
+    <sheet name="25_3" sheetId="43" r:id="rId1"/>
+    <sheet name="25_02" sheetId="42" r:id="rId2"/>
+    <sheet name="25_01" sheetId="41" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="11">
   <si>
     <t>tüketim</t>
   </si>
@@ -79,20 +80,20 @@
     <numFmt numFmtId="168" formatCode="&quot;TonFyt &quot;[$₺-41F]#,##0.00;[Red]&quot;-&quot;[$₺-41F]#,##0"/>
     <numFmt numFmtId="169" formatCode="&quot;KW &quot;0.00"/>
     <numFmt numFmtId="170" formatCode="[$₺-41F]#,##0.00;&quot;-&quot;[$₺-41F]#,##0.00"/>
-    <numFmt numFmtId="173" formatCode="#,##0.000"/>
-    <numFmt numFmtId="174" formatCode="0&quot; kw&quot;"/>
-    <numFmt numFmtId="176" formatCode="&quot;+ Su &quot;[$₺-41F]#,##0.00;[Red]&quot;-&quot;[$₺-41F]#,##0"/>
-    <numFmt numFmtId="177" formatCode="&quot;- Su &quot;[$₺-41F]#,##0.00;[Red]&quot;-&quot;[$₺-41F]#,##0"/>
-    <numFmt numFmtId="178" formatCode="%0.00"/>
-    <numFmt numFmtId="179" formatCode="&quot;+  &quot;#,##0.000"/>
-    <numFmt numFmtId="180" formatCode="dd&quot;.&quot;mm&quot;.&quot;yyyy"/>
-    <numFmt numFmtId="183" formatCode="[$₺-41F]#,##0.00;[Red]&quot;-&quot;[$₺-41F]#,##0"/>
-    <numFmt numFmtId="186" formatCode="#,##0.000&quot; kw&quot;"/>
-    <numFmt numFmtId="187" formatCode="&quot;+       &quot;%0.00"/>
-    <numFmt numFmtId="188" formatCode="&quot;SuYzr &quot;#,##0.00&quot; T&quot;"/>
-    <numFmt numFmtId="189" formatCode="&quot;Yzr &quot;#,##0.00&quot; Ton&quot;"/>
-    <numFmt numFmtId="190" formatCode="&quot;Ö.Ay &quot;[$₺-41F]#,##0.00;[Red]&quot;-&quot;[$₺-41F]#,##0.00"/>
-    <numFmt numFmtId="191" formatCode="[$₺-41F]#,##0.000;[Red]&quot;-&quot;[$₺-41F]#,##0.000"/>
+    <numFmt numFmtId="171" formatCode="#,##0.000"/>
+    <numFmt numFmtId="172" formatCode="0&quot; kw&quot;"/>
+    <numFmt numFmtId="173" formatCode="&quot;+ Su &quot;[$₺-41F]#,##0.00;[Red]&quot;-&quot;[$₺-41F]#,##0"/>
+    <numFmt numFmtId="174" formatCode="&quot;- Su &quot;[$₺-41F]#,##0.00;[Red]&quot;-&quot;[$₺-41F]#,##0"/>
+    <numFmt numFmtId="175" formatCode="%0.00"/>
+    <numFmt numFmtId="176" formatCode="&quot;+  &quot;#,##0.000"/>
+    <numFmt numFmtId="177" formatCode="dd&quot;.&quot;mm&quot;.&quot;yyyy"/>
+    <numFmt numFmtId="178" formatCode="[$₺-41F]#,##0.00;[Red]&quot;-&quot;[$₺-41F]#,##0"/>
+    <numFmt numFmtId="179" formatCode="#,##0.000&quot; kw&quot;"/>
+    <numFmt numFmtId="180" formatCode="&quot;+       &quot;%0.00"/>
+    <numFmt numFmtId="181" formatCode="&quot;SuYzr &quot;#,##0.00&quot; T&quot;"/>
+    <numFmt numFmtId="182" formatCode="&quot;Yzr &quot;#,##0.00&quot; Ton&quot;"/>
+    <numFmt numFmtId="183" formatCode="&quot;Ö.Ay &quot;[$₺-41F]#,##0.00;[Red]&quot;-&quot;[$₺-41F]#,##0.00"/>
+    <numFmt numFmtId="184" formatCode="[$₺-41F]#,##0.000;[Red]&quot;-&quot;[$₺-41F]#,##0.000"/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -462,22 +463,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="186" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -485,24 +486,24 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="18" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="180" fontId="18" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="16" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="18" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="18" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="188" fontId="18" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="18" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="18" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="175" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="18" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -512,17 +513,17 @@
     <xf numFmtId="165" fontId="18" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="189" fontId="18" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="18" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="183" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="190" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="183" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="18" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -532,7 +533,7 @@
     <xf numFmtId="168" fontId="18" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="191" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Accent" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -569,6 +570,55 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>702469</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>539637</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>109506</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Resim 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB02FFF9-1C6F-4C94-A594-D9A0BC4F10DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3506391" y="0"/>
+          <a:ext cx="10564699" cy="8306959"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -617,7 +667,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -962,11 +1012,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543129D4-C5A9-407B-907B-48E5E036088C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BFFBC0-F7B8-4903-A44B-45A0DB7C8EA0}">
   <dimension ref="B1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1000,18 +1050,18 @@
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="8">
+        <v>29.364999999999998</v>
+      </c>
+      <c r="C3" s="9">
         <v>15.821</v>
-      </c>
-      <c r="C3" s="9">
-        <v>0</v>
       </c>
       <c r="D3" s="10">
         <f>B3-C3</f>
-        <v>15.821</v>
+        <v>13.543999999999999</v>
       </c>
       <c r="E3" s="10">
         <f>D3*$E$1</f>
-        <v>949.26</v>
+        <v>812.63999999999987</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -1019,14 +1069,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="12">
-        <v>4550</v>
+        <v>3880</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="53">
         <f>C4/E3</f>
-        <v>4.7932073404546696</v>
+        <v>4.7745619216381181</v>
       </c>
       <c r="F4" s="13"/>
     </row>
@@ -1034,29 +1084,24 @@
       <c r="B5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="15">
-        <f>B7+D7</f>
-        <v>0</v>
-      </c>
+      <c r="C5" s="15"/>
       <c r="D5" s="16"/>
-      <c r="E5" s="17" t="s">
-        <v>5</v>
-      </c>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="18">
+        <v>124648</v>
+      </c>
+      <c r="C6" s="19">
         <v>124438</v>
-      </c>
-      <c r="C6" s="19">
-        <v>124093</v>
       </c>
       <c r="D6" s="19">
         <f>B6-C6</f>
-        <v>345</v>
+        <v>210</v>
       </c>
       <c r="E6" s="20">
         <f>D6*$E$4</f>
-        <v>1653.656532456861</v>
+        <v>1002.6580035440048</v>
       </c>
       <c r="F6" s="13"/>
     </row>
@@ -1066,7 +1111,7 @@
       <c r="D7" s="13"/>
       <c r="E7" s="23">
         <f>D7+E6</f>
-        <v>1653.656532456861</v>
+        <v>1002.6580035440048</v>
       </c>
       <c r="F7" s="13"/>
     </row>
@@ -1075,7 +1120,7 @@
       <c r="D8" s="25"/>
       <c r="E8" s="26">
         <f>E7+C9</f>
-        <v>1653.656532456861</v>
+        <v>1002.6580035440048</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -1084,7 +1129,7 @@
       <c r="D9" s="29"/>
       <c r="E9" s="30">
         <f>D6/$E$3</f>
-        <v>0.36344099614436509</v>
+        <v>0.25841701122268168</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -1097,43 +1142,33 @@
       <c r="B11" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="15" t="e">
-        <f>B13+D13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D11" s="16">
-        <v>0</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>5</v>
-      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="18">
+        <v>8226</v>
+      </c>
+      <c r="C12" s="19">
         <v>8012</v>
-      </c>
-      <c r="C12" s="19">
-        <v>7801</v>
       </c>
       <c r="D12" s="19">
         <f>B12-C12</f>
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E12" s="23">
         <f>D12*$E$4</f>
-        <v>1011.3667488359353</v>
+        <v>1021.7562512305573</v>
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="21" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B13" s="21"/>
       <c r="C13" s="22"/>
       <c r="D13" s="13"/>
       <c r="E13" s="23">
         <f>D13+E12</f>
-        <v>1011.3667488359353</v>
+        <v>1021.7562512305573</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -1142,7 +1177,7 @@
       <c r="D14" s="25"/>
       <c r="E14" s="26">
         <f>E13+C15</f>
-        <v>1011.3667488359353</v>
+        <v>1021.7562512305573</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -1151,7 +1186,7 @@
       <c r="D15" s="29"/>
       <c r="E15" s="30">
         <f>D12/$E$3</f>
-        <v>0.22227840633756821</v>
+        <v>0.26333924000787562</v>
       </c>
     </row>
     <row r="16" spans="2:6">
@@ -1164,43 +1199,35 @@
       <c r="B17" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="15" t="e">
-        <f>B19+D19</f>
-        <v>#REF!</v>
-      </c>
+      <c r="C17" s="15"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="17" t="s">
-        <v>5</v>
-      </c>
+      <c r="E17" s="17"/>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="37">
+        <v>2520</v>
+      </c>
+      <c r="C18" s="38">
         <v>2470</v>
-      </c>
-      <c r="C18" s="38">
-        <v>2374</v>
       </c>
       <c r="D18" s="38">
         <f>B18-C18</f>
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E18" s="39">
         <f>D18*$E$4</f>
-        <v>460.14790468364828</v>
+        <v>238.7280960819059</v>
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="21" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B19" s="21"/>
       <c r="C19" s="22">
         <v>0</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="23">
         <f>D19+E18</f>
-        <v>460.14790468364828</v>
+        <v>238.7280960819059</v>
       </c>
     </row>
     <row r="20" spans="2:5">
@@ -1208,7 +1235,7 @@
       <c r="D20" s="25"/>
       <c r="E20" s="26">
         <f>E19+C21</f>
-        <v>460.14790468364828</v>
+        <v>238.7280960819059</v>
       </c>
     </row>
     <row r="21" spans="2:5">
@@ -1217,7 +1244,7 @@
       <c r="D21" s="29"/>
       <c r="E21" s="30">
         <f>D18/$E$3</f>
-        <v>0.10113140762277985</v>
+        <v>6.1527859814924209E-2</v>
       </c>
     </row>
     <row r="22" spans="2:5">
@@ -1230,42 +1257,32 @@
       <c r="B23" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="15" t="e">
-        <f>B25+D25</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D23" s="16">
-        <v>0</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>5</v>
-      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="41">
         <f>E3-D6-D12-D18-D36-D30</f>
-        <v>279.26</v>
+        <v>338.63999999999987</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19">
         <f>B24-C24</f>
-        <v>279.26</v>
+        <v>338.63999999999987</v>
       </c>
       <c r="E24" s="42">
         <f>D24*$E$4</f>
-        <v>1338.551081895371</v>
+        <v>1616.8576491435317</v>
       </c>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="21" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B25" s="21"/>
       <c r="C25" s="22"/>
       <c r="D25" s="43"/>
       <c r="E25" s="23">
         <f>D25+E24</f>
-        <v>1338.551081895371</v>
+        <v>1616.8576491435317</v>
       </c>
     </row>
     <row r="26" spans="2:5">
@@ -1274,7 +1291,7 @@
       <c r="D26" s="44"/>
       <c r="E26" s="26">
         <f>E25+C27</f>
-        <v>1338.551081895371</v>
+        <v>1616.8576491435317</v>
       </c>
     </row>
     <row r="27" spans="2:5">
@@ -1283,7 +1300,7 @@
       <c r="D27" s="29"/>
       <c r="E27" s="30">
         <f>D24/$E$3</f>
-        <v>0.29418705096601561</v>
+        <v>0.4167158889545185</v>
       </c>
     </row>
     <row r="28" spans="2:5">
@@ -1296,43 +1313,33 @@
       <c r="B29" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="15" t="e">
-        <f>B31+D31</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D29" s="16">
-        <v>200</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>5</v>
-      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="17"/>
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="18">
-        <v>6813</v>
+        <v>8813</v>
       </c>
       <c r="C30" s="19">
-        <v>6795</v>
+        <v>8813</v>
       </c>
       <c r="D30" s="19">
         <f>B30-C30</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E30" s="42">
         <f>D30*$E$4</f>
-        <v>86.277732128184056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="45" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B31" s="45"/>
       <c r="C31" s="22"/>
       <c r="D31" s="13"/>
       <c r="E31" s="23">
         <f>D31+E30</f>
-        <v>86.277732128184056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:5">
@@ -1340,7 +1347,7 @@
       <c r="D32" s="25"/>
       <c r="E32" s="26">
         <f>E31+C33</f>
-        <v>86.277732128184056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:5">
@@ -1352,7 +1359,7 @@
       <c r="D33" s="29"/>
       <c r="E33" s="30">
         <f>D30/$E$3</f>
-        <v>1.8962138929271222E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:5">
@@ -1365,16 +1372,9 @@
       <c r="B35" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="15" t="e">
-        <f>B37+D37</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D35" s="16">
-        <v>6700</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>5</v>
-      </c>
+      <c r="C35" s="15"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="17"/>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="37">
@@ -1393,10 +1393,7 @@
       </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="45" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B37" s="45"/>
       <c r="C37" s="22">
         <v>0</v>
       </c>
@@ -1428,15 +1425,15 @@
       </c>
       <c r="C40" s="51">
         <f>D6+D12+D18+D24+D30+D36</f>
-        <v>949.26</v>
+        <v>812.63999999999987</v>
       </c>
       <c r="D40" s="52">
         <f>E8+E14+E20+E26+E32+E37</f>
-        <v>4549.9999999999991</v>
+        <v>3880</v>
       </c>
       <c r="E40" s="1">
         <f>E36+E30+E24+E18+E12+E6</f>
-        <v>4550</v>
+        <v>3879.9999999999995</v>
       </c>
     </row>
     <row r="41" spans="2:5">
@@ -1454,7 +1451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE377DF9-6281-4E26-A9A5-329AD0BCD9C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543129D4-C5A9-407B-907B-48E5E036088C}">
   <dimension ref="B1:F41"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -1471,6 +1468,498 @@
   <sheetData>
     <row r="1" spans="2:6">
       <c r="B1" s="3">
+        <v>45658</v>
+      </c>
+      <c r="C1" s="4">
+        <v>45688</v>
+      </c>
+      <c r="E1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="8">
+        <v>15.821</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10">
+        <f>B3-C3</f>
+        <v>15.821</v>
+      </c>
+      <c r="E3" s="10">
+        <f>D3*$E$1</f>
+        <v>949.26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="12">
+        <v>4550</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="53">
+        <f>C4/E3</f>
+        <v>4.7932073404546696</v>
+      </c>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="15">
+        <f>B7+D7</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="18">
+        <v>124438</v>
+      </c>
+      <c r="C6" s="19">
+        <v>124093</v>
+      </c>
+      <c r="D6" s="19">
+        <f>B6-C6</f>
+        <v>345</v>
+      </c>
+      <c r="E6" s="20">
+        <f>D6*$E$4</f>
+        <v>1653.656532456861</v>
+      </c>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="23">
+        <f>D7+E6</f>
+        <v>1653.656532456861</v>
+      </c>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="24"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="26">
+        <f>E7+C9</f>
+        <v>1653.656532456861</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30">
+        <f>D6/$E$3</f>
+        <v>0.36344099614436509</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="34"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="15" t="e">
+        <f>B13+D13</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="18">
+        <v>8012</v>
+      </c>
+      <c r="C12" s="19">
+        <v>7801</v>
+      </c>
+      <c r="D12" s="19">
+        <f>B12-C12</f>
+        <v>211</v>
+      </c>
+      <c r="E12" s="23">
+        <f>D12*$E$4</f>
+        <v>1011.3667488359353</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="21" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="23">
+        <f>D13+E12</f>
+        <v>1011.3667488359353</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="24"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26">
+        <f>E13+C15</f>
+        <v>1011.3667488359353</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30">
+        <f>D12/$E$3</f>
+        <v>0.22227840633756821</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="36"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="34"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="15" t="e">
+        <f>B19+D19</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="37">
+        <v>2470</v>
+      </c>
+      <c r="C18" s="38">
+        <v>2374</v>
+      </c>
+      <c r="D18" s="38">
+        <f>B18-C18</f>
+        <v>96</v>
+      </c>
+      <c r="E18" s="39">
+        <f>D18*$E$4</f>
+        <v>460.14790468364828</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="21" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C19" s="22">
+        <v>0</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="23">
+        <f>D19+E18</f>
+        <v>460.14790468364828</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26">
+        <f>E19+C21</f>
+        <v>460.14790468364828</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30">
+        <f>D18/$E$3</f>
+        <v>0.10113140762277985</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="40"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="15" t="e">
+        <f>B25+D25</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D23" s="16">
+        <v>0</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="41">
+        <f>E3-D6-D12-D18-D36-D30</f>
+        <v>279.26</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19">
+        <f>B24-C24</f>
+        <v>279.26</v>
+      </c>
+      <c r="E24" s="42">
+        <f>D24*$E$4</f>
+        <v>1338.551081895371</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="21" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="23">
+        <f>D25+E24</f>
+        <v>1338.551081895371</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="24"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="26">
+        <f>E25+C27</f>
+        <v>1338.551081895371</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="30">
+        <f>D24/$E$3</f>
+        <v>0.29418705096601561</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="40"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="34"/>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="15" t="e">
+        <f>B31+D31</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D29" s="16">
+        <v>200</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="18">
+        <v>6813</v>
+      </c>
+      <c r="C30" s="19">
+        <v>6795</v>
+      </c>
+      <c r="D30" s="19">
+        <f>B30-C30</f>
+        <v>18</v>
+      </c>
+      <c r="E30" s="42">
+        <f>D30*$E$4</f>
+        <v>86.277732128184056</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="45" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="23">
+        <f>D31+E30</f>
+        <v>86.277732128184056</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="24"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="26">
+        <f>E31+C33</f>
+        <v>86.277732128184056</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="27">
+        <f>C33-D33</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="28"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="30">
+        <f>D30/$E$3</f>
+        <v>1.8962138929271222E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="36"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="34"/>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="15" t="e">
+        <f>B37+D37</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D35" s="16">
+        <v>6700</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="37">
+        <v>7606</v>
+      </c>
+      <c r="C36" s="38">
+        <v>7606</v>
+      </c>
+      <c r="D36" s="38">
+        <f>B36-C36+J39</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="46">
+        <f>D36*$E$4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="45" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C37" s="22">
+        <v>0</v>
+      </c>
+      <c r="D37" s="13">
+        <f>(D36*$E$4*C37)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="26">
+        <f>E36+C38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="27"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="30"/>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="47"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="50"/>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40">
+        <f>C38+C33+C27+C21+C15+C9</f>
+        <v>0</v>
+      </c>
+      <c r="C40" s="51">
+        <f>D6+D12+D18+D24+D30+D36</f>
+        <v>949.26</v>
+      </c>
+      <c r="D40" s="52">
+        <f>E8+E14+E20+E26+E32+E37</f>
+        <v>4549.9999999999991</v>
+      </c>
+      <c r="E40" s="1">
+        <f>E36+E30+E24+E18+E12+E6</f>
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="C41" s="51"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.27559055118110198" right="0.27559055118110198" top="0.62992125984252012" bottom="0.62992125984252012" header="0.23622047244094502" footer="0.23622047244094502"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE377DF9-6281-4E26-A9A5-329AD0BCD9C7}">
+  <dimension ref="B1:F41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A39" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="3">
         <v>45597</v>
       </c>
       <c r="C1" s="4">

--- a/2025 cepesas/2025-sny-CEDAS.xlsx
+++ b/2025 cepesas/2025-sny-CEDAS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\2025 cepesas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BEA8E2-E7B3-4F59-BFC5-FCC885070642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60EB08B-AA5B-4FC2-A19C-3FB257706A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="25_3" sheetId="43" r:id="rId1"/>
@@ -574,13 +574,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>702469</xdr:colOff>
+      <xdr:colOff>785812</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>539637</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>15761</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>109506</xdr:rowOff>
     </xdr:to>
@@ -605,7 +605,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3506391" y="0"/>
+          <a:off x="3589734" y="0"/>
           <a:ext cx="10564699" cy="8306959"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1015,8 +1015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BFFBC0-F7B8-4903-A44B-45A0DB7C8EA0}">
   <dimension ref="B1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1096,12 +1096,11 @@
         <v>124438</v>
       </c>
       <c r="D6" s="19">
-        <f>B6-C6</f>
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="E6" s="20">
         <f>D6*$E$4</f>
-        <v>1002.6580035440048</v>
+        <v>1098.1492419767671</v>
       </c>
       <c r="F6" s="13"/>
     </row>
@@ -1111,7 +1110,7 @@
       <c r="D7" s="13"/>
       <c r="E7" s="23">
         <f>D7+E6</f>
-        <v>1002.6580035440048</v>
+        <v>1098.1492419767671</v>
       </c>
       <c r="F7" s="13"/>
     </row>
@@ -1120,7 +1119,7 @@
       <c r="D8" s="25"/>
       <c r="E8" s="26">
         <f>E7+C9</f>
-        <v>1002.6580035440048</v>
+        <v>1098.1492419767671</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -1129,7 +1128,7 @@
       <c r="D9" s="29"/>
       <c r="E9" s="30">
         <f>D6/$E$3</f>
-        <v>0.25841701122268168</v>
+        <v>0.28302815514865137</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -1148,18 +1147,18 @@
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="18">
-        <v>8226</v>
+        <v>8250</v>
       </c>
       <c r="C12" s="19">
         <v>8012</v>
       </c>
       <c r="D12" s="19">
         <f>B12-C12</f>
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="E12" s="23">
         <f>D12*$E$4</f>
-        <v>1021.7562512305573</v>
+        <v>1136.345737349872</v>
       </c>
     </row>
     <row r="13" spans="2:6">
@@ -1168,7 +1167,7 @@
       <c r="D13" s="13"/>
       <c r="E13" s="23">
         <f>D13+E12</f>
-        <v>1021.7562512305573</v>
+        <v>1136.345737349872</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -1177,7 +1176,7 @@
       <c r="D14" s="25"/>
       <c r="E14" s="26">
         <f>E13+C15</f>
-        <v>1021.7562512305573</v>
+        <v>1136.345737349872</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -1186,7 +1185,7 @@
       <c r="D15" s="29"/>
       <c r="E15" s="30">
         <f>D12/$E$3</f>
-        <v>0.26333924000787562</v>
+        <v>0.29287261271903925</v>
       </c>
     </row>
     <row r="16" spans="2:6">
@@ -1264,16 +1263,16 @@
     <row r="24" spans="2:5">
       <c r="B24" s="41">
         <f>E3-D6-D12-D18-D36-D30</f>
-        <v>338.63999999999987</v>
+        <v>294.63999999999987</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19">
         <f>B24-C24</f>
-        <v>338.63999999999987</v>
+        <v>294.63999999999987</v>
       </c>
       <c r="E24" s="42">
         <f>D24*$E$4</f>
-        <v>1616.8576491435317</v>
+        <v>1406.7769245914544</v>
       </c>
     </row>
     <row r="25" spans="2:5">
@@ -1282,7 +1281,7 @@
       <c r="D25" s="43"/>
       <c r="E25" s="23">
         <f>D25+E24</f>
-        <v>1616.8576491435317</v>
+        <v>1406.7769245914544</v>
       </c>
     </row>
     <row r="26" spans="2:5">
@@ -1291,7 +1290,7 @@
       <c r="D26" s="44"/>
       <c r="E26" s="26">
         <f>E25+C27</f>
-        <v>1616.8576491435317</v>
+        <v>1406.7769245914544</v>
       </c>
     </row>
     <row r="27" spans="2:5">
@@ -1300,7 +1299,7 @@
       <c r="D27" s="29"/>
       <c r="E27" s="30">
         <f>D24/$E$3</f>
-        <v>0.4167158889545185</v>
+        <v>0.36257137231738523</v>
       </c>
     </row>
     <row r="28" spans="2:5">
@@ -1429,11 +1428,11 @@
       </c>
       <c r="D40" s="52">
         <f>E8+E14+E20+E26+E32+E37</f>
-        <v>3880</v>
+        <v>3879.9999999999991</v>
       </c>
       <c r="E40" s="1">
         <f>E36+E30+E24+E18+E12+E6</f>
-        <v>3879.9999999999995</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="41" spans="2:5">
@@ -1454,7 +1453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543129D4-C5A9-407B-907B-48E5E036088C}">
   <dimension ref="B1:F41"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>

--- a/2025 cepesas/2025-sny-CEDAS.xlsx
+++ b/2025 cepesas/2025-sny-CEDAS.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\2025 cepesas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\comprg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60EB08B-AA5B-4FC2-A19C-3FB257706A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4434C632-2D4D-4052-905E-5CCA11ECDBAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="25_3" sheetId="43" r:id="rId1"/>
-    <sheet name="25_02" sheetId="42" r:id="rId2"/>
-    <sheet name="25_01" sheetId="41" r:id="rId3"/>
+    <sheet name="25_4" sheetId="44" r:id="rId1"/>
+    <sheet name="25_3" sheetId="43" r:id="rId2"/>
+    <sheet name="25_02" sheetId="42" r:id="rId3"/>
+    <sheet name="25_01" sheetId="41" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="12">
   <si>
     <t>tüketim</t>
   </si>
@@ -66,6 +67,9 @@
   </si>
   <si>
     <t>SnyH-Hacı</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -20kw sonraki ayda düşüldü</t>
   </si>
 </sst>
 </file>
@@ -459,7 +463,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
@@ -534,6 +538,10 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="184" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Accent" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1012,11 +1020,895 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A959A2-5F73-4059-A389-522B93CBC773}">
+  <dimension ref="B1:G41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="3">
+        <v>45717</v>
+      </c>
+      <c r="C1" s="4">
+        <v>45747</v>
+      </c>
+      <c r="E1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="8">
+        <v>41.225000000000001</v>
+      </c>
+      <c r="C3" s="9">
+        <v>29.364999999999998</v>
+      </c>
+      <c r="D3" s="10">
+        <f>B3-C3</f>
+        <v>11.860000000000003</v>
+      </c>
+      <c r="E3" s="10">
+        <f>D3*$E$1</f>
+        <v>711.60000000000014</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="12">
+        <v>3400</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="53">
+        <f>C4/E3</f>
+        <v>4.7779651489600887</v>
+      </c>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="18">
+        <v>124708</v>
+      </c>
+      <c r="C6" s="19">
+        <v>124648</v>
+      </c>
+      <c r="D6" s="19">
+        <f>B6-C6</f>
+        <v>60</v>
+      </c>
+      <c r="E6" s="20">
+        <f>D6*$E$4</f>
+        <v>286.67790893760531</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="23">
+        <f>D7+E6</f>
+        <v>286.67790893760531</v>
+      </c>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="24">
+        <v>-20</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="26">
+        <f>E7+C9</f>
+        <v>286.67790893760531</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30">
+        <f>D6/$E$3</f>
+        <v>8.4317032040472153E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="34"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="18">
+        <v>8471</v>
+      </c>
+      <c r="C12" s="19">
+        <v>8250</v>
+      </c>
+      <c r="D12" s="19">
+        <f>B12-C12</f>
+        <v>221</v>
+      </c>
+      <c r="E12" s="23">
+        <f>D12*$E$4</f>
+        <v>1055.9302979201796</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="23">
+        <f>D13+E12</f>
+        <v>1055.9302979201796</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="24"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26">
+        <f>E13+C15</f>
+        <v>1055.9302979201796</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30">
+        <f>D12/$E$3</f>
+        <v>0.31056773468240578</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="36"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="34"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="37">
+        <v>2595</v>
+      </c>
+      <c r="C18" s="38">
+        <v>2520</v>
+      </c>
+      <c r="D18" s="38">
+        <f>B18-C18</f>
+        <v>75</v>
+      </c>
+      <c r="E18" s="39">
+        <f>D18*$E$4</f>
+        <v>358.34738617200668</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="21"/>
+      <c r="C19" s="22">
+        <v>0</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="23">
+        <f>D19+E18</f>
+        <v>358.34738617200668</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26">
+        <f>E19+C21</f>
+        <v>358.34738617200668</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30">
+        <f>D18/$E$3</f>
+        <v>0.1053962900505902</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="40"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="41">
+        <f>E3-D6-D12-D18-D36-D30</f>
+        <v>355.60000000000014</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19">
+        <f>B24-C24</f>
+        <v>355.60000000000014</v>
+      </c>
+      <c r="E24" s="42">
+        <f>D24*$E$4</f>
+        <v>1699.0444069702082</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="23">
+        <f>D25+E24</f>
+        <v>1699.0444069702082</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="24"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="26">
+        <f>E25+C27</f>
+        <v>1699.0444069702082</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="30">
+        <f>D24/$E$3</f>
+        <v>0.49971894322653188</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="40"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="34"/>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="17"/>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="18">
+        <v>8813</v>
+      </c>
+      <c r="C30" s="19">
+        <v>8813</v>
+      </c>
+      <c r="D30" s="19">
+        <f>B30-C30</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="42">
+        <f>D30*$E$4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="45"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="23">
+        <f>D31+E30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="24"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="26">
+        <f>E31+C33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="27">
+        <f>C33-D33</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="28"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="30">
+        <f>D30/$E$3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="36"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="34"/>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="15"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="17"/>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="37">
+        <v>7606</v>
+      </c>
+      <c r="C36" s="38">
+        <v>7606</v>
+      </c>
+      <c r="D36" s="38">
+        <f>B36-C36+J39</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="46">
+        <f>D36*$E$4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="45"/>
+      <c r="C37" s="22">
+        <v>0</v>
+      </c>
+      <c r="D37" s="13">
+        <f>(D36*$E$4*C37)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="26">
+        <f>E36+C38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="27"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="30"/>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="47"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="50"/>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40">
+        <f>C38+C33+C27+C21+C15+C9</f>
+        <v>0</v>
+      </c>
+      <c r="C40" s="51">
+        <f>D6+D12+D18+D24+D30+D36</f>
+        <v>711.60000000000014</v>
+      </c>
+      <c r="D40" s="52">
+        <f>E8+E14+E20+E26+E32+E37</f>
+        <v>3400</v>
+      </c>
+      <c r="E40" s="1">
+        <f>E36+E30+E24+E18+E12+E6</f>
+        <v>3399.9999999999995</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="C41" s="51"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.27559055118110198" right="0.27559055118110198" top="0.62992125984252012" bottom="0.62992125984252012" header="0.23622047244094502" footer="0.23622047244094502"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BFFBC0-F7B8-4903-A44B-45A0DB7C8EA0}">
   <dimension ref="B1:F41"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="3">
+        <v>45689</v>
+      </c>
+      <c r="C1" s="4">
+        <v>45716</v>
+      </c>
+      <c r="E1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="8">
+        <v>29.364999999999998</v>
+      </c>
+      <c r="C3" s="9">
+        <v>15.821</v>
+      </c>
+      <c r="D3" s="10">
+        <f>B3-C3</f>
+        <v>13.543999999999999</v>
+      </c>
+      <c r="E3" s="10">
+        <f>D3*$E$1</f>
+        <v>812.63999999999987</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="12">
+        <v>3880</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="53">
+        <f>C4/E3</f>
+        <v>4.7745619216381181</v>
+      </c>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="18">
+        <v>124648</v>
+      </c>
+      <c r="C6" s="19">
+        <v>124438</v>
+      </c>
+      <c r="D6" s="19">
+        <v>230</v>
+      </c>
+      <c r="E6" s="20">
+        <f>D6*$E$4</f>
+        <v>1098.1492419767671</v>
+      </c>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="23">
+        <f>D7+E6</f>
+        <v>1098.1492419767671</v>
+      </c>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="54">
+        <f>B6-C6</f>
+        <v>210</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="26">
+        <f>E7+C9</f>
+        <v>1098.1492419767671</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30">
+        <f>D6/$E$3</f>
+        <v>0.28302815514865137</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="34"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="18">
+        <v>8250</v>
+      </c>
+      <c r="C12" s="19">
+        <v>8012</v>
+      </c>
+      <c r="D12" s="19">
+        <f>B12-C12</f>
+        <v>238</v>
+      </c>
+      <c r="E12" s="23">
+        <f>D12*$E$4</f>
+        <v>1136.345737349872</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="23">
+        <f>D13+E12</f>
+        <v>1136.345737349872</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="24"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26">
+        <f>E13+C15</f>
+        <v>1136.345737349872</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30">
+        <f>D12/$E$3</f>
+        <v>0.29287261271903925</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="36"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="34"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="37">
+        <v>2520</v>
+      </c>
+      <c r="C18" s="38">
+        <v>2470</v>
+      </c>
+      <c r="D18" s="38">
+        <f>B18-C18</f>
+        <v>50</v>
+      </c>
+      <c r="E18" s="39">
+        <f>D18*$E$4</f>
+        <v>238.7280960819059</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="21"/>
+      <c r="C19" s="22">
+        <v>0</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="23">
+        <f>D19+E18</f>
+        <v>238.7280960819059</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26">
+        <f>E19+C21</f>
+        <v>238.7280960819059</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30">
+        <f>D18/$E$3</f>
+        <v>6.1527859814924209E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="40"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="41">
+        <f>E3-D6-D12-D18-D36-D30</f>
+        <v>294.63999999999987</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19">
+        <f>B24-C24</f>
+        <v>294.63999999999987</v>
+      </c>
+      <c r="E24" s="42">
+        <f>D24*$E$4</f>
+        <v>1406.7769245914544</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="23">
+        <f>D25+E24</f>
+        <v>1406.7769245914544</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="24"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="26">
+        <f>E25+C27</f>
+        <v>1406.7769245914544</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="30">
+        <f>D24/$E$3</f>
+        <v>0.36257137231738523</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="40"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="34"/>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="17"/>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="18">
+        <v>8813</v>
+      </c>
+      <c r="C30" s="19">
+        <v>8813</v>
+      </c>
+      <c r="D30" s="19">
+        <f>B30-C30</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="42">
+        <f>D30*$E$4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="45"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="23">
+        <f>D31+E30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="24"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="26">
+        <f>E31+C33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="27">
+        <f>C33-D33</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="28"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="30">
+        <f>D30/$E$3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="36"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="34"/>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="15"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="17"/>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="37">
+        <v>7606</v>
+      </c>
+      <c r="C36" s="38">
+        <v>7606</v>
+      </c>
+      <c r="D36" s="38">
+        <f>B36-C36+J39</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="46">
+        <f>D36*$E$4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="45"/>
+      <c r="C37" s="22">
+        <v>0</v>
+      </c>
+      <c r="D37" s="13">
+        <f>(D36*$E$4*C37)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="26">
+        <f>E36+C38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="27"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="30"/>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="47"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="50"/>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40">
+        <f>C38+C33+C27+C21+C15+C9</f>
+        <v>0</v>
+      </c>
+      <c r="C40" s="51">
+        <f>D6+D12+D18+D24+D30+D36</f>
+        <v>812.63999999999987</v>
+      </c>
+      <c r="D40" s="52">
+        <f>E8+E14+E20+E26+E32+E37</f>
+        <v>3879.9999999999991</v>
+      </c>
+      <c r="E40" s="1">
+        <f>E36+E30+E24+E18+E12+E6</f>
+        <v>3880</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="C41" s="51"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.27559055118110198" right="0.27559055118110198" top="0.62992125984252012" bottom="0.62992125984252012" header="0.23622047244094502" footer="0.23622047244094502"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543129D4-C5A9-407B-907B-48E5E036088C}">
+  <dimension ref="B1:F41"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1050,18 +1942,18 @@
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="8">
-        <v>29.364999999999998</v>
+        <v>15.821</v>
       </c>
       <c r="C3" s="9">
-        <v>15.821</v>
+        <v>0</v>
       </c>
       <c r="D3" s="10">
         <f>B3-C3</f>
-        <v>13.543999999999999</v>
+        <v>15.821</v>
       </c>
       <c r="E3" s="10">
         <f>D3*$E$1</f>
-        <v>812.63999999999987</v>
+        <v>949.26</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -1069,14 +1961,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="12">
-        <v>3880</v>
+        <v>4550</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="53">
         <f>C4/E3</f>
-        <v>4.7745619216381181</v>
+        <v>4.7932073404546696</v>
       </c>
       <c r="F4" s="13"/>
     </row>
@@ -1084,23 +1976,29 @@
       <c r="B5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="15"/>
+      <c r="C5" s="15">
+        <f>B7+D7</f>
+        <v>0</v>
+      </c>
       <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
+      <c r="E5" s="17" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="18">
-        <v>124648</v>
+        <v>124438</v>
       </c>
       <c r="C6" s="19">
-        <v>124438</v>
+        <v>124093</v>
       </c>
       <c r="D6" s="19">
-        <v>230</v>
+        <f>B6-C6</f>
+        <v>345</v>
       </c>
       <c r="E6" s="20">
         <f>D6*$E$4</f>
-        <v>1098.1492419767671</v>
+        <v>1653.656532456861</v>
       </c>
       <c r="F6" s="13"/>
     </row>
@@ -1110,7 +2008,7 @@
       <c r="D7" s="13"/>
       <c r="E7" s="23">
         <f>D7+E6</f>
-        <v>1098.1492419767671</v>
+        <v>1653.656532456861</v>
       </c>
       <c r="F7" s="13"/>
     </row>
@@ -1119,7 +2017,7 @@
       <c r="D8" s="25"/>
       <c r="E8" s="26">
         <f>E7+C9</f>
-        <v>1098.1492419767671</v>
+        <v>1653.656532456861</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -1128,7 +2026,7 @@
       <c r="D9" s="29"/>
       <c r="E9" s="30">
         <f>D6/$E$3</f>
-        <v>0.28302815514865137</v>
+        <v>0.36344099614436509</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -1141,33 +2039,43 @@
       <c r="B11" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
+      <c r="C11" s="15" t="e">
+        <f>B13+D13</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="18">
-        <v>8250</v>
+        <v>8012</v>
       </c>
       <c r="C12" s="19">
-        <v>8012</v>
+        <v>7801</v>
       </c>
       <c r="D12" s="19">
         <f>B12-C12</f>
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="E12" s="23">
         <f>D12*$E$4</f>
-        <v>1136.345737349872</v>
+        <v>1011.3667488359353</v>
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="21"/>
+      <c r="B13" s="21" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
       <c r="C13" s="22"/>
       <c r="D13" s="13"/>
       <c r="E13" s="23">
         <f>D13+E12</f>
-        <v>1136.345737349872</v>
+        <v>1011.3667488359353</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -1176,7 +2084,7 @@
       <c r="D14" s="25"/>
       <c r="E14" s="26">
         <f>E13+C15</f>
-        <v>1136.345737349872</v>
+        <v>1011.3667488359353</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -1185,7 +2093,7 @@
       <c r="D15" s="29"/>
       <c r="E15" s="30">
         <f>D12/$E$3</f>
-        <v>0.29287261271903925</v>
+        <v>0.22227840633756821</v>
       </c>
     </row>
     <row r="16" spans="2:6">
@@ -1198,35 +2106,43 @@
       <c r="B17" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="15"/>
+      <c r="C17" s="15" t="e">
+        <f>B19+D19</f>
+        <v>#REF!</v>
+      </c>
       <c r="D17" s="16"/>
-      <c r="E17" s="17"/>
+      <c r="E17" s="17" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="37">
-        <v>2520</v>
+        <v>2470</v>
       </c>
       <c r="C18" s="38">
-        <v>2470</v>
+        <v>2374</v>
       </c>
       <c r="D18" s="38">
         <f>B18-C18</f>
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="E18" s="39">
         <f>D18*$E$4</f>
-        <v>238.7280960819059</v>
+        <v>460.14790468364828</v>
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="21"/>
+      <c r="B19" s="21" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
       <c r="C19" s="22">
         <v>0</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="23">
         <f>D19+E18</f>
-        <v>238.7280960819059</v>
+        <v>460.14790468364828</v>
       </c>
     </row>
     <row r="20" spans="2:5">
@@ -1234,7 +2150,7 @@
       <c r="D20" s="25"/>
       <c r="E20" s="26">
         <f>E19+C21</f>
-        <v>238.7280960819059</v>
+        <v>460.14790468364828</v>
       </c>
     </row>
     <row r="21" spans="2:5">
@@ -1243,7 +2159,7 @@
       <c r="D21" s="29"/>
       <c r="E21" s="30">
         <f>D18/$E$3</f>
-        <v>6.1527859814924209E-2</v>
+        <v>0.10113140762277985</v>
       </c>
     </row>
     <row r="22" spans="2:5">
@@ -1256,32 +2172,42 @@
       <c r="B23" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17"/>
+      <c r="C23" s="15" t="e">
+        <f>B25+D25</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D23" s="16">
+        <v>0</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="41">
         <f>E3-D6-D12-D18-D36-D30</f>
-        <v>294.63999999999987</v>
+        <v>279.26</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19">
         <f>B24-C24</f>
-        <v>294.63999999999987</v>
+        <v>279.26</v>
       </c>
       <c r="E24" s="42">
         <f>D24*$E$4</f>
-        <v>1406.7769245914544</v>
+        <v>1338.551081895371</v>
       </c>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="21"/>
+      <c r="B25" s="21" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
       <c r="C25" s="22"/>
       <c r="D25" s="43"/>
       <c r="E25" s="23">
         <f>D25+E24</f>
-        <v>1406.7769245914544</v>
+        <v>1338.551081895371</v>
       </c>
     </row>
     <row r="26" spans="2:5">
@@ -1290,7 +2216,7 @@
       <c r="D26" s="44"/>
       <c r="E26" s="26">
         <f>E25+C27</f>
-        <v>1406.7769245914544</v>
+        <v>1338.551081895371</v>
       </c>
     </row>
     <row r="27" spans="2:5">
@@ -1299,7 +2225,7 @@
       <c r="D27" s="29"/>
       <c r="E27" s="30">
         <f>D24/$E$3</f>
-        <v>0.36257137231738523</v>
+        <v>0.29418705096601561</v>
       </c>
     </row>
     <row r="28" spans="2:5">
@@ -1312,33 +2238,43 @@
       <c r="B29" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17"/>
+      <c r="C29" s="15" t="e">
+        <f>B31+D31</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D29" s="16">
+        <v>200</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="18">
-        <v>8813</v>
+        <v>6813</v>
       </c>
       <c r="C30" s="19">
-        <v>8813</v>
+        <v>6795</v>
       </c>
       <c r="D30" s="19">
         <f>B30-C30</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E30" s="42">
         <f>D30*$E$4</f>
-        <v>0</v>
+        <v>86.277732128184056</v>
       </c>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="45"/>
+      <c r="B31" s="45" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
       <c r="C31" s="22"/>
       <c r="D31" s="13"/>
       <c r="E31" s="23">
         <f>D31+E30</f>
-        <v>0</v>
+        <v>86.277732128184056</v>
       </c>
     </row>
     <row r="32" spans="2:5">
@@ -1346,7 +2282,7 @@
       <c r="D32" s="25"/>
       <c r="E32" s="26">
         <f>E31+C33</f>
-        <v>0</v>
+        <v>86.277732128184056</v>
       </c>
     </row>
     <row r="33" spans="2:5">
@@ -1358,7 +2294,7 @@
       <c r="D33" s="29"/>
       <c r="E33" s="30">
         <f>D30/$E$3</f>
-        <v>0</v>
+        <v>1.8962138929271222E-2</v>
       </c>
     </row>
     <row r="34" spans="2:5">
@@ -1371,9 +2307,16 @@
       <c r="B35" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="17"/>
+      <c r="C35" s="15" t="e">
+        <f>B37+D37</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D35" s="16">
+        <v>6700</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="37">
@@ -1392,7 +2335,10 @@
       </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="45"/>
+      <c r="B37" s="45" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
       <c r="C37" s="22">
         <v>0</v>
       </c>
@@ -1424,15 +2370,15 @@
       </c>
       <c r="C40" s="51">
         <f>D6+D12+D18+D24+D30+D36</f>
-        <v>812.63999999999987</v>
+        <v>949.26</v>
       </c>
       <c r="D40" s="52">
         <f>E8+E14+E20+E26+E32+E37</f>
-        <v>3879.9999999999991</v>
+        <v>4549.9999999999991</v>
       </c>
       <c r="E40" s="1">
         <f>E36+E30+E24+E18+E12+E6</f>
-        <v>3880</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="41" spans="2:5">
@@ -1449,12 +2395,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543129D4-C5A9-407B-907B-48E5E036088C}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE377DF9-6281-4E26-A9A5-329AD0BCD9C7}">
   <dimension ref="B1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1467,502 +2413,10 @@
   <sheetData>
     <row r="1" spans="2:6">
       <c r="B1" s="3">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="C1" s="4">
-        <v>45688</v>
-      </c>
-      <c r="E1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6">
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="8">
-        <v>15.821</v>
-      </c>
-      <c r="C3" s="9">
-        <v>0</v>
-      </c>
-      <c r="D3" s="10">
-        <f>B3-C3</f>
-        <v>15.821</v>
-      </c>
-      <c r="E3" s="10">
-        <f>D3*$E$1</f>
-        <v>949.26</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="12">
-        <v>4550</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="53">
-        <f>C4/E3</f>
-        <v>4.7932073404546696</v>
-      </c>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="15">
-        <f>B7+D7</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="18">
-        <v>124438</v>
-      </c>
-      <c r="C6" s="19">
-        <v>124093</v>
-      </c>
-      <c r="D6" s="19">
-        <f>B6-C6</f>
-        <v>345</v>
-      </c>
-      <c r="E6" s="20">
-        <f>D6*$E$4</f>
-        <v>1653.656532456861</v>
-      </c>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="21"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="23">
-        <f>D7+E6</f>
-        <v>1653.656532456861</v>
-      </c>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="24"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26">
-        <f>E7+C9</f>
-        <v>1653.656532456861</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="27"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="30">
-        <f>D6/$E$3</f>
-        <v>0.36344099614436509</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="31"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="34"/>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="15" t="e">
-        <f>B13+D13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D11" s="16">
-        <v>0</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="18">
-        <v>8012</v>
-      </c>
-      <c r="C12" s="19">
-        <v>7801</v>
-      </c>
-      <c r="D12" s="19">
-        <f>B12-C12</f>
-        <v>211</v>
-      </c>
-      <c r="E12" s="23">
-        <f>D12*$E$4</f>
-        <v>1011.3667488359353</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="21" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="23">
-        <f>D13+E12</f>
-        <v>1011.3667488359353</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="24"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26">
-        <f>E13+C15</f>
-        <v>1011.3667488359353</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="30">
-        <f>D12/$E$3</f>
-        <v>0.22227840633756821</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="36"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="34"/>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="15" t="e">
-        <f>B19+D19</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="37">
-        <v>2470</v>
-      </c>
-      <c r="C18" s="38">
-        <v>2374</v>
-      </c>
-      <c r="D18" s="38">
-        <f>B18-C18</f>
-        <v>96</v>
-      </c>
-      <c r="E18" s="39">
-        <f>D18*$E$4</f>
-        <v>460.14790468364828</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="21" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C19" s="22">
-        <v>0</v>
-      </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="23">
-        <f>D19+E18</f>
-        <v>460.14790468364828</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="24"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26">
-        <f>E19+C21</f>
-        <v>460.14790468364828</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="27"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="30">
-        <f>D18/$E$3</f>
-        <v>0.10113140762277985</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="40"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="15" t="e">
-        <f>B25+D25</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D23" s="16">
-        <v>0</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="41">
-        <f>E3-D6-D12-D18-D36-D30</f>
-        <v>279.26</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19">
-        <f>B24-C24</f>
-        <v>279.26</v>
-      </c>
-      <c r="E24" s="42">
-        <f>D24*$E$4</f>
-        <v>1338.551081895371</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="21" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="23">
-        <f>D25+E24</f>
-        <v>1338.551081895371</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="24"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="26">
-        <f>E25+C27</f>
-        <v>1338.551081895371</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="27"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="30">
-        <f>D24/$E$3</f>
-        <v>0.29418705096601561</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="40"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="34"/>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="15" t="e">
-        <f>B31+D31</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D29" s="16">
-        <v>200</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="18">
-        <v>6813</v>
-      </c>
-      <c r="C30" s="19">
-        <v>6795</v>
-      </c>
-      <c r="D30" s="19">
-        <f>B30-C30</f>
-        <v>18</v>
-      </c>
-      <c r="E30" s="42">
-        <f>D30*$E$4</f>
-        <v>86.277732128184056</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="B31" s="45" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="23">
-        <f>D31+E30</f>
-        <v>86.277732128184056</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="B32" s="24"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="26">
-        <f>E31+C33</f>
-        <v>86.277732128184056</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="27">
-        <f>C33-D33</f>
-        <v>0</v>
-      </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="30">
-        <f>D30/$E$3</f>
-        <v>1.8962138929271222E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" s="36"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="34"/>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="B35" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="15" t="e">
-        <f>B37+D37</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D35" s="16">
-        <v>6700</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="B36" s="37">
-        <v>7606</v>
-      </c>
-      <c r="C36" s="38">
-        <v>7606</v>
-      </c>
-      <c r="D36" s="38">
-        <f>B36-C36+J39</f>
-        <v>0</v>
-      </c>
-      <c r="E36" s="46">
-        <f>D36*$E$4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="B37" s="45" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C37" s="22">
-        <v>0</v>
-      </c>
-      <c r="D37" s="13">
-        <f>(D36*$E$4*C37)</f>
-        <v>0</v>
-      </c>
-      <c r="E37" s="26">
-        <f>E36+C38</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5">
-      <c r="B38" s="27"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="30"/>
-    </row>
-    <row r="39" spans="2:5">
-      <c r="B39" s="47"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="50"/>
-    </row>
-    <row r="40" spans="2:5">
-      <c r="B40">
-        <f>C38+C33+C27+C21+C15+C9</f>
-        <v>0</v>
-      </c>
-      <c r="C40" s="51">
-        <f>D6+D12+D18+D24+D30+D36</f>
-        <v>949.26</v>
-      </c>
-      <c r="D40" s="52">
-        <f>E8+E14+E20+E26+E32+E37</f>
-        <v>4549.9999999999991</v>
-      </c>
-      <c r="E40" s="1">
-        <f>E36+E30+E24+E18+E12+E6</f>
-        <v>4550</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5">
-      <c r="C41" s="51"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.27559055118110198" right="0.27559055118110198" top="0.62992125984252012" bottom="0.62992125984252012" header="0.23622047244094502" footer="0.23622047244094502"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE377DF9-6281-4E26-A9A5-329AD0BCD9C7}">
-  <dimension ref="B1:F41"/>
-  <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="2.42578125" customWidth="1"/>
-    <col min="2" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:6">
-      <c r="B1" s="3">
-        <v>45597</v>
-      </c>
-      <c r="C1" s="4">
-        <v>45626</v>
+        <v>45656</v>
       </c>
       <c r="E1">
         <v>60</v>

--- a/2025 cepesas/2025-sny-CEDAS.xlsx
+++ b/2025 cepesas/2025-sny-CEDAS.xlsx
@@ -1,40 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\comprg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\comprg\zzaagitme\tdy\2025 cepesas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4434C632-2D4D-4052-905E-5CCA11ECDBAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC59975-A890-46D4-817B-FB2470C30B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="25_4" sheetId="44" r:id="rId1"/>
-    <sheet name="25_3" sheetId="43" r:id="rId2"/>
-    <sheet name="25_02" sheetId="42" r:id="rId3"/>
-    <sheet name="25_01" sheetId="41" r:id="rId4"/>
+    <sheet name="25_5" sheetId="45" r:id="rId1"/>
+    <sheet name="25_4" sheetId="44" r:id="rId2"/>
+    <sheet name="25_3" sheetId="43" r:id="rId3"/>
+    <sheet name="25_02" sheetId="42" r:id="rId4"/>
+    <sheet name="25_01" sheetId="41" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="13">
   <si>
     <t>tüketim</t>
   </si>
@@ -70,6 +60,9 @@
   </si>
   <si>
     <t xml:space="preserve"> -20kw sonraki ayda düşüldü</t>
+  </si>
+  <si>
+    <t>31.04.2025</t>
   </si>
 </sst>
 </file>
@@ -1020,10 +1013,451 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FE051B-2903-4548-8239-36D3A5335D67}">
+  <dimension ref="B1:G41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="3">
+        <v>45748</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="8">
+        <v>55.925899999999999</v>
+      </c>
+      <c r="C3" s="9">
+        <v>41.225000000000001</v>
+      </c>
+      <c r="D3" s="10">
+        <f>B3-C3</f>
+        <v>14.700899999999997</v>
+      </c>
+      <c r="E3" s="10">
+        <f>D3*$E$1</f>
+        <v>882.05399999999986</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="12">
+        <v>4210</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="53">
+        <f>C4/E3</f>
+        <v>4.7729504089318802</v>
+      </c>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="18">
+        <v>124950</v>
+      </c>
+      <c r="C6" s="19">
+        <v>124708</v>
+      </c>
+      <c r="D6" s="19">
+        <f>B6-C6</f>
+        <v>242</v>
+      </c>
+      <c r="E6" s="20">
+        <f>D6*$E$4</f>
+        <v>1155.0539989615149</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="23">
+        <f>D7+E6</f>
+        <v>1155.0539989615149</v>
+      </c>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="24">
+        <v>-20</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="26">
+        <f>E7+C9</f>
+        <v>1155.0539989615149</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30">
+        <f>D6/$E$3</f>
+        <v>0.27435961970582307</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="34"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="18">
+        <v>8745</v>
+      </c>
+      <c r="C12" s="19">
+        <v>8471</v>
+      </c>
+      <c r="D12" s="19">
+        <f>B12-C12</f>
+        <v>274</v>
+      </c>
+      <c r="E12" s="23">
+        <f>D12*$E$4</f>
+        <v>1307.7884120473352</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="23">
+        <f>D13+E12</f>
+        <v>1307.7884120473352</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="24"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26">
+        <f>E13+C15</f>
+        <v>1307.7884120473352</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30">
+        <f>D12/$E$3</f>
+        <v>0.31063857768345254</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="36"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="34"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="37">
+        <v>2701</v>
+      </c>
+      <c r="C18" s="38">
+        <v>2595</v>
+      </c>
+      <c r="D18" s="38">
+        <f>B18-C18</f>
+        <v>106</v>
+      </c>
+      <c r="E18" s="39">
+        <f>D18*$E$4</f>
+        <v>505.93274334677932</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="21"/>
+      <c r="C19" s="22">
+        <v>0</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="23">
+        <f>D19+E18</f>
+        <v>505.93274334677932</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26">
+        <f>E19+C21</f>
+        <v>505.93274334677932</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30">
+        <f>D18/$E$3</f>
+        <v>0.1201740483008977</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="40"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="41">
+        <f>E3-D6-D12-D18-D36-D30</f>
+        <v>260.05399999999986</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19">
+        <f>B24-C24</f>
+        <v>260.05399999999986</v>
+      </c>
+      <c r="E24" s="42">
+        <f>D24*$E$4</f>
+        <v>1241.2248456443706</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="23">
+        <f>D25+E24</f>
+        <v>1241.2248456443706</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="24"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="26">
+        <f>E25+C27</f>
+        <v>1241.2248456443706</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="30">
+        <f>D24/$E$3</f>
+        <v>0.29482775430982672</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="40"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="34"/>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="17"/>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="18">
+        <v>8813</v>
+      </c>
+      <c r="C30" s="19">
+        <v>8813</v>
+      </c>
+      <c r="D30" s="19">
+        <f>B30-C30</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="42">
+        <f>D30*$E$4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="45"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="23">
+        <f>D31+E30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="24"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="26">
+        <f>E31+C33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="27">
+        <f>C33-D33</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="28"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="30">
+        <f>D30/$E$3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="36"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="34"/>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="15"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="17"/>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="37">
+        <v>7606</v>
+      </c>
+      <c r="C36" s="38">
+        <v>7606</v>
+      </c>
+      <c r="D36" s="38">
+        <f>B36-C36+J39</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="46">
+        <f>D36*$E$4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="45"/>
+      <c r="C37" s="22">
+        <v>0</v>
+      </c>
+      <c r="D37" s="13">
+        <f>(D36*$E$4*C37)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="26">
+        <f>E36+C38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="27"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="30"/>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="47"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="50"/>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40">
+        <f>C38+C33+C27+C21+C15+C9</f>
+        <v>0</v>
+      </c>
+      <c r="C40" s="51">
+        <f>D6+D12+D18+D24+D30+D36</f>
+        <v>882.05399999999986</v>
+      </c>
+      <c r="D40" s="52">
+        <f>E8+E14+E20+E26+E32+E37</f>
+        <v>4210</v>
+      </c>
+      <c r="E40" s="1">
+        <f>E36+E30+E24+E18+E12+E6</f>
+        <v>4210</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="C41" s="51"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.27559055118110198" right="0.27559055118110198" top="0.62992125984252012" bottom="0.62992125984252012" header="0.23622047244094502" footer="0.23622047244094502"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A959A2-5F73-4059-A389-522B93CBC773}">
   <dimension ref="B1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -1460,7 +1894,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BFFBC0-F7B8-4903-A44B-45A0DB7C8EA0}">
   <dimension ref="B1:F41"/>
   <sheetViews>
@@ -1903,7 +2337,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543129D4-C5A9-407B-907B-48E5E036088C}">
   <dimension ref="B1:F41"/>
   <sheetViews>
@@ -2395,7 +2829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE377DF9-6281-4E26-A9A5-329AD0BCD9C7}">
   <dimension ref="B1:F41"/>
   <sheetViews>

--- a/2025 cepesas/2025-sny-CEDAS.xlsx
+++ b/2025 cepesas/2025-sny-CEDAS.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\comprg\zzaagitme\tdy\2025 cepesas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\comprg\aagitme\tdy\2025 cepesas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC59975-A890-46D4-817B-FB2470C30B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5FF461-0A61-4979-9680-D738FE53A0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="25_5" sheetId="45" r:id="rId1"/>
-    <sheet name="25_4" sheetId="44" r:id="rId2"/>
-    <sheet name="25_3" sheetId="43" r:id="rId3"/>
-    <sheet name="25_02" sheetId="42" r:id="rId4"/>
-    <sheet name="25_01" sheetId="41" r:id="rId5"/>
+    <sheet name="25_6" sheetId="46" r:id="rId1"/>
+    <sheet name="25_5" sheetId="45" r:id="rId2"/>
+    <sheet name="25_4" sheetId="44" r:id="rId3"/>
+    <sheet name="25_3" sheetId="43" r:id="rId4"/>
+    <sheet name="25_02" sheetId="42" r:id="rId5"/>
+    <sheet name="25_01" sheetId="41" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="15">
   <si>
     <t>tüketim</t>
   </si>
@@ -63,6 +64,12 @@
   </si>
   <si>
     <t>31.04.2025</t>
+  </si>
+  <si>
+    <t>kw</t>
+  </si>
+  <si>
+    <t>tl/kw</t>
   </si>
 </sst>
 </file>
@@ -574,6 +581,61 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>577768</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>53577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>124051</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Resim 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B45D7A9-7F60-E425-ADA1-C92D5497D915}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5608159" y="53577"/>
+          <a:ext cx="4958637" cy="5696177"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>785812</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -619,7 +681,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -668,7 +730,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1013,10 +1075,549 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15525587-FB37-462A-BD4E-5020B329252A}">
+  <dimension ref="B1:I41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9">
+      <c r="B1" s="3">
+        <v>45748</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="8">
+        <v>64.58</v>
+      </c>
+      <c r="C3" s="9">
+        <v>54.195999999999998</v>
+      </c>
+      <c r="D3" s="10">
+        <f>B3-C3</f>
+        <v>10.384</v>
+      </c>
+      <c r="E3" s="10">
+        <f>D3*$E$1</f>
+        <v>623.04</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="12">
+        <v>3425</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="53">
+        <f>C4/E3</f>
+        <v>5.4972393425783261</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="18">
+        <v>125070</v>
+      </c>
+      <c r="C6" s="19">
+        <v>124950</v>
+      </c>
+      <c r="D6" s="19">
+        <f>B6-C6</f>
+        <v>120</v>
+      </c>
+      <c r="E6" s="20">
+        <f>D6*$E$4</f>
+        <v>659.66872110939914</v>
+      </c>
+      <c r="F6" s="1">
+        <f>D6</f>
+        <v>120</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="1">
+        <f>F6*F13</f>
+        <v>737.82852218871176</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="23">
+        <f>D7+E6</f>
+        <v>659.66872110939914</v>
+      </c>
+      <c r="F7" s="1">
+        <f>D12</f>
+        <v>433</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1">
+        <f>F7*F13</f>
+        <v>2662.3312508976014</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="24">
+        <v>-20</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="26">
+        <f>E7+C9</f>
+        <v>659.66872110939914</v>
+      </c>
+      <c r="F8" s="1">
+        <f>D18</f>
+        <v>3</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1">
+        <f>F8*F13</f>
+        <v>18.445713054717793</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30">
+        <f>D6/$E$3</f>
+        <v>0.19260400616332821</v>
+      </c>
+      <c r="F9" s="1">
+        <f>D24</f>
+        <v>1.0399999999999636</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1">
+        <f>F9*F13</f>
+        <v>6.3945138589686117</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="1">
+        <f>D30</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1">
+        <f>F10*F13</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="1">
+        <f>D36</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1">
+        <f>F11*F13</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="18">
+        <v>9178</v>
+      </c>
+      <c r="C12" s="19">
+        <v>8745</v>
+      </c>
+      <c r="D12" s="19">
+        <f>B12-C12</f>
+        <v>433</v>
+      </c>
+      <c r="E12" s="23">
+        <f>D12*$E$4</f>
+        <v>2380.3046353364152</v>
+      </c>
+      <c r="F12" s="1">
+        <f>SUM(F6:F10)</f>
+        <v>557.04</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="23">
+        <f>D13+E12</f>
+        <v>2380.3046353364152</v>
+      </c>
+      <c r="F13" s="1">
+        <f>C4/F12</f>
+        <v>6.1485710182392648</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="1">
+        <f>SUM(H6:H12)</f>
+        <v>3425</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="24"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26">
+        <f>E13+C15</f>
+        <v>2380.3046353364152</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30">
+        <f>D12/$E$3</f>
+        <v>0.69497945557267593</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="36"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="34"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="37">
+        <v>2704</v>
+      </c>
+      <c r="C18" s="38">
+        <v>2701</v>
+      </c>
+      <c r="D18" s="38">
+        <f>B18-C18</f>
+        <v>3</v>
+      </c>
+      <c r="E18" s="39">
+        <f>D18*$E$4</f>
+        <v>16.491718027734979</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="21"/>
+      <c r="C19" s="22">
+        <v>0</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="23">
+        <f>D19+E18</f>
+        <v>16.491718027734979</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26">
+        <f>E19+C21</f>
+        <v>16.491718027734979</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30">
+        <f>D18/$E$3</f>
+        <v>4.8151001540832055E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="40"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="41">
+        <f>E3-D6-D12-D18-D36-D30</f>
+        <v>67.039999999999964</v>
+      </c>
+      <c r="C24" s="19">
+        <v>66</v>
+      </c>
+      <c r="D24" s="19">
+        <f>B24-C24</f>
+        <v>1.0399999999999636</v>
+      </c>
+      <c r="E24" s="42">
+        <f>D24*$E$4</f>
+        <v>5.7171289162812595</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="23">
+        <f>D25+E24</f>
+        <v>5.7171289162812595</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="24"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="26">
+        <f>E25+C27</f>
+        <v>5.7171289162812595</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="30">
+        <f>D24/$E$3</f>
+        <v>1.6692347200821195E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="40"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="34"/>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="17"/>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="18">
+        <v>8813</v>
+      </c>
+      <c r="C30" s="19">
+        <v>8813</v>
+      </c>
+      <c r="D30" s="19">
+        <f>B30-C30</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="42">
+        <f>D30*$E$4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="45"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="23">
+        <f>D31+E30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="24"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="26">
+        <f>E31+C33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="27">
+        <f>C33-D33</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="28"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="30">
+        <f>D30/$E$3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="36"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="34"/>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="15"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="17"/>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="37">
+        <v>7606</v>
+      </c>
+      <c r="C36" s="38">
+        <v>7606</v>
+      </c>
+      <c r="D36" s="38">
+        <f>B36-C36+J39</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="46">
+        <f>D36*$E$4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="45"/>
+      <c r="C37" s="22">
+        <v>0</v>
+      </c>
+      <c r="D37" s="13">
+        <f>(D36*$E$4*C37)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="26">
+        <f>E36+C38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="27"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="30"/>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="47"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="50"/>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40">
+        <f>C38+C33+C27+C21+C15+C9</f>
+        <v>0</v>
+      </c>
+      <c r="C40" s="51">
+        <f>D6+D12+D18+D24+D30+D36</f>
+        <v>557.04</v>
+      </c>
+      <c r="D40" s="52">
+        <f>E8+E14+E20+E26+E32+E37</f>
+        <v>3062.1822033898302</v>
+      </c>
+      <c r="E40" s="1">
+        <f>E36+E30+E24+E18+E12+E6</f>
+        <v>3062.1822033898306</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="C41" s="51"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.27559055118110198" right="0.27559055118110198" top="0.62992125984252012" bottom="0.62992125984252012" header="0.23622047244094502" footer="0.23622047244094502"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FE051B-2903-4548-8239-36D3A5335D67}">
   <dimension ref="B1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1453,7 +2054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A959A2-5F73-4059-A389-522B93CBC773}">
   <dimension ref="B1:G41"/>
   <sheetViews>
@@ -1894,7 +2495,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BFFBC0-F7B8-4903-A44B-45A0DB7C8EA0}">
   <dimension ref="B1:F41"/>
   <sheetViews>
@@ -2337,7 +2938,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543129D4-C5A9-407B-907B-48E5E036088C}">
   <dimension ref="B1:F41"/>
   <sheetViews>
@@ -2829,7 +3430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE377DF9-6281-4E26-A9A5-329AD0BCD9C7}">
   <dimension ref="B1:F41"/>
   <sheetViews>

--- a/2025 cepesas/2025-sny-CEDAS.xlsx
+++ b/2025 cepesas/2025-sny-CEDAS.xlsx
@@ -1,31 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\comprg\aagitme\tdy\2025 cepesas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\2025 cepesas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5FF461-0A61-4979-9680-D738FE53A0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4D9F10-8054-4CB0-A4EF-F879F7A3F340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="25_6" sheetId="46" r:id="rId1"/>
-    <sheet name="25_5" sheetId="45" r:id="rId2"/>
-    <sheet name="25_4" sheetId="44" r:id="rId3"/>
-    <sheet name="25_3" sheetId="43" r:id="rId4"/>
-    <sheet name="25_02" sheetId="42" r:id="rId5"/>
-    <sheet name="25_01" sheetId="41" r:id="rId6"/>
+    <sheet name="25_7" sheetId="47" r:id="rId1"/>
+    <sheet name="25_6" sheetId="46" r:id="rId2"/>
+    <sheet name="25_5" sheetId="45" r:id="rId3"/>
+    <sheet name="25_4" sheetId="44" r:id="rId4"/>
+    <sheet name="25_3" sheetId="43" r:id="rId5"/>
+    <sheet name="25_02" sheetId="42" r:id="rId6"/>
+    <sheet name="25_01" sheetId="41" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="19">
   <si>
     <t>tüketim</t>
   </si>
@@ -70,6 +82,18 @@
   </si>
   <si>
     <t>tl/kw</t>
+  </si>
+  <si>
+    <t>31.06.2025</t>
+  </si>
+  <si>
+    <t>SnyE-</t>
+  </si>
+  <si>
+    <t>SnyF-</t>
+  </si>
+  <si>
+    <t>Sny G-</t>
   </si>
 </sst>
 </file>
@@ -581,6 +605,55 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9545</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>10885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>451757</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>141091</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Resim 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB821CE6-C058-488D-9627-A626B1EA0A62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3623602" y="10885"/>
+          <a:ext cx="5520398" cy="6498349"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>577768</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -632,7 +705,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -681,7 +754,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -730,7 +803,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1075,10 +1148,549 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BD5A78-A091-4C13-BD52-FCA9A383C4BB}">
+  <dimension ref="B1:I41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9">
+      <c r="B1" s="3">
+        <v>45809</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="8">
+        <v>74.89</v>
+      </c>
+      <c r="C3" s="9">
+        <v>64.58</v>
+      </c>
+      <c r="D3" s="10">
+        <f>B3-C3</f>
+        <v>10.310000000000002</v>
+      </c>
+      <c r="E3" s="10">
+        <f>D3*$E$1</f>
+        <v>618.60000000000014</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="12">
+        <v>3410</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="53">
+        <f>C4/E3</f>
+        <v>5.5124474620109911</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="18">
+        <v>125251</v>
+      </c>
+      <c r="C6" s="19">
+        <v>125070</v>
+      </c>
+      <c r="D6" s="19">
+        <f>B6-C6</f>
+        <v>181</v>
+      </c>
+      <c r="E6" s="20">
+        <f>D6*$E$4</f>
+        <v>997.75299062398938</v>
+      </c>
+      <c r="F6" s="1">
+        <f>D6</f>
+        <v>181</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="1">
+        <f>F6*F13</f>
+        <v>1116.9200144770175</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="23">
+        <f>D7+E6</f>
+        <v>997.75299062398938</v>
+      </c>
+      <c r="F7" s="1">
+        <f>D12</f>
+        <v>410</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1">
+        <f>F7*F13</f>
+        <v>2530.0398117987688</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="24">
+        <v>-20</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="26">
+        <f>E7+C9</f>
+        <v>997.75299062398938</v>
+      </c>
+      <c r="F8" s="1">
+        <f>D18</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1">
+        <f>F8*F13</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30">
+        <f>D6/$E$3</f>
+        <v>0.29259618493372125</v>
+      </c>
+      <c r="F9" s="1">
+        <f>D24</f>
+        <v>-38.399999999999864</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1">
+        <f>F9*F13</f>
+        <v>-236.95982627578627</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="1">
+        <f>D30</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1">
+        <f>F10*F13</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="1">
+        <f>D36</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1">
+        <f>F11*F13</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="18">
+        <v>9588</v>
+      </c>
+      <c r="C12" s="19">
+        <v>9178</v>
+      </c>
+      <c r="D12" s="19">
+        <f>B12-C12</f>
+        <v>410</v>
+      </c>
+      <c r="E12" s="23">
+        <f>D12*$E$4</f>
+        <v>2260.1034594245066</v>
+      </c>
+      <c r="F12" s="1">
+        <f>SUM(F6:F10)</f>
+        <v>552.60000000000014</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="23">
+        <f>D13+E12</f>
+        <v>2260.1034594245066</v>
+      </c>
+      <c r="F13" s="1">
+        <f>C4/F12</f>
+        <v>6.1708288092652896</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="1">
+        <f>SUM(H6:H12)</f>
+        <v>3410</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="24"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26">
+        <f>E13+C15</f>
+        <v>2260.1034594245066</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30">
+        <f>D12/$E$3</f>
+        <v>0.66278693824765589</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="36"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="34"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="37">
+        <v>2704</v>
+      </c>
+      <c r="C18" s="38">
+        <v>2704</v>
+      </c>
+      <c r="D18" s="38">
+        <f>B18-C18</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="39">
+        <f>D18*$E$4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="21"/>
+      <c r="C19" s="22">
+        <v>0</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="23">
+        <f>D19+E18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26">
+        <f>E19+C21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30">
+        <f>D18/$E$3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="40"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="41">
+        <f>E3-D6-D12-D18-D36-D30</f>
+        <v>27.600000000000136</v>
+      </c>
+      <c r="C24" s="19">
+        <v>66</v>
+      </c>
+      <c r="D24" s="19">
+        <f>B24-C24</f>
+        <v>-38.399999999999864</v>
+      </c>
+      <c r="E24" s="42">
+        <f>D24*$E$4</f>
+        <v>-211.6779825412213</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="23">
+        <f>D25+E24</f>
+        <v>-211.6779825412213</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="24"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="26">
+        <f>E25+C27</f>
+        <v>-211.6779825412213</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="30">
+        <f>D24/$E$3</f>
+        <v>-6.2075654704170473E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="40"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="34"/>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="17"/>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="18">
+        <v>8813</v>
+      </c>
+      <c r="C30" s="19">
+        <v>8813</v>
+      </c>
+      <c r="D30" s="19">
+        <f>B30-C30</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="42">
+        <f>D30*$E$4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="45"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="23">
+        <f>D31+E30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="24"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="26">
+        <f>E31+C33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="27">
+        <f>C33-D33</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="28"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="30">
+        <f>D30/$E$3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="36"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="34"/>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="15"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="17"/>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="37">
+        <v>7606</v>
+      </c>
+      <c r="C36" s="38">
+        <v>7606</v>
+      </c>
+      <c r="D36" s="38">
+        <f>B36-C36+J39</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="46">
+        <f>D36*$E$4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="45"/>
+      <c r="C37" s="22">
+        <v>0</v>
+      </c>
+      <c r="D37" s="13">
+        <f>(D36*$E$4*C37)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="26">
+        <f>E36+C38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="27"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="30"/>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="47"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="50"/>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40">
+        <f>C38+C33+C27+C21+C15+C9</f>
+        <v>0</v>
+      </c>
+      <c r="C40" s="51">
+        <f>D6+D12+D18+D24+D30+D36</f>
+        <v>552.60000000000014</v>
+      </c>
+      <c r="D40" s="52">
+        <f>E8+E14+E20+E26+E32+E37</f>
+        <v>3046.1784675072745</v>
+      </c>
+      <c r="E40" s="1">
+        <f>E36+E30+E24+E18+E12+E6</f>
+        <v>3046.1784675072745</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="C41" s="51"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.27559055118110198" right="0.27559055118110198" top="0.62992125984252012" bottom="0.62992125984252012" header="0.23622047244094502" footer="0.23622047244094502"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15525587-FB37-462A-BD4E-5020B329252A}">
   <dimension ref="B1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -1613,7 +2225,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FE051B-2903-4548-8239-36D3A5335D67}">
   <dimension ref="B1:G41"/>
   <sheetViews>
@@ -2054,7 +2666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A959A2-5F73-4059-A389-522B93CBC773}">
   <dimension ref="B1:G41"/>
   <sheetViews>
@@ -2495,7 +3107,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BFFBC0-F7B8-4903-A44B-45A0DB7C8EA0}">
   <dimension ref="B1:F41"/>
   <sheetViews>
@@ -2938,7 +3550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543129D4-C5A9-407B-907B-48E5E036088C}">
   <dimension ref="B1:F41"/>
   <sheetViews>
@@ -3430,7 +4042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE377DF9-6281-4E26-A9A5-329AD0BCD9C7}">
   <dimension ref="B1:F41"/>
   <sheetViews>

--- a/2025 cepesas/2025-sny-CEDAS.xlsx
+++ b/2025 cepesas/2025-sny-CEDAS.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\2025 cepesas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4D9F10-8054-4CB0-A4EF-F879F7A3F340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD86E0AA-99D2-474B-90A3-D81BE4BE78BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="25_7" sheetId="47" r:id="rId1"/>
-    <sheet name="25_6" sheetId="46" r:id="rId2"/>
-    <sheet name="25_5" sheetId="45" r:id="rId3"/>
-    <sheet name="25_4" sheetId="44" r:id="rId4"/>
-    <sheet name="25_3" sheetId="43" r:id="rId5"/>
-    <sheet name="25_02" sheetId="42" r:id="rId6"/>
-    <sheet name="25_01" sheetId="41" r:id="rId7"/>
+    <sheet name="25_8" sheetId="48" r:id="rId1"/>
+    <sheet name="25_7" sheetId="47" r:id="rId2"/>
+    <sheet name="25_6" sheetId="46" r:id="rId3"/>
+    <sheet name="25_5" sheetId="45" r:id="rId4"/>
+    <sheet name="25_4" sheetId="44" r:id="rId5"/>
+    <sheet name="25_3" sheetId="43" r:id="rId6"/>
+    <sheet name="25_02" sheetId="42" r:id="rId7"/>
+    <sheet name="25_01" sheetId="41" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="21">
   <si>
     <t>tüketim</t>
   </si>
@@ -94,6 +95,12 @@
   </si>
   <si>
     <t>Sny G-</t>
+  </si>
+  <si>
+    <t>ant</t>
+  </si>
+  <si>
+    <t>demirel</t>
   </si>
 </sst>
 </file>
@@ -605,6 +612,55 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>302174</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>52554</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>120949</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Resim 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72B86F22-FDE2-4D99-8294-CD83AD89F3A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6549260" y="0"/>
+          <a:ext cx="5248604" cy="6361466"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9545</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -650,7 +706,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -705,7 +761,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -754,7 +810,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -803,7 +859,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1148,10 +1204,552 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF7EF603-157D-46EF-81AD-E9439D1D6FB9}">
+  <dimension ref="B1:I41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9">
+      <c r="B1" s="3">
+        <v>45809</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="8">
+        <v>84.941000000000003</v>
+      </c>
+      <c r="C3" s="9">
+        <v>64.58</v>
+      </c>
+      <c r="D3" s="10">
+        <f>B3-C3</f>
+        <v>20.361000000000004</v>
+      </c>
+      <c r="E3" s="10">
+        <f>D3*$E$1</f>
+        <v>1221.6600000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="12">
+        <v>6710</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="53">
+        <f>C4/E3</f>
+        <v>5.492526562218619</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="18">
+        <v>125327</v>
+      </c>
+      <c r="C6" s="19">
+        <v>125070</v>
+      </c>
+      <c r="D6" s="19">
+        <f>B6-C6</f>
+        <v>257</v>
+      </c>
+      <c r="E6" s="20">
+        <f>D6*$E$4</f>
+        <v>1411.5793264901852</v>
+      </c>
+      <c r="F6" s="1">
+        <f>D6</f>
+        <v>257</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="1">
+        <f>F6*F13</f>
+        <v>2097.8953771289539</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="23">
+        <f>D7+E6</f>
+        <v>1411.5793264901852</v>
+      </c>
+      <c r="F7" s="1">
+        <f>D12</f>
+        <v>565</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1">
+        <f>F7*F13</f>
+        <v>4612.1046228710466</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="24">
+        <v>-20</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="26">
+        <f>E7+C9</f>
+        <v>1411.5793264901852</v>
+      </c>
+      <c r="F8" s="1">
+        <f>D18</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1">
+        <f>F8*F13</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30">
+        <f>D6/$E$3</f>
+        <v>0.21036949724145829</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1">
+        <f>F9*F13</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="1">
+        <f>D30</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1">
+        <f>F10*F13</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="1">
+        <f>D36</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1">
+        <f>F11*F13</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="18">
+        <v>9743</v>
+      </c>
+      <c r="C12" s="19">
+        <v>9178</v>
+      </c>
+      <c r="D12" s="19">
+        <f>B12-C12</f>
+        <v>565</v>
+      </c>
+      <c r="E12" s="23">
+        <f>D12*$E$4</f>
+        <v>3103.2775076535199</v>
+      </c>
+      <c r="F12" s="1">
+        <f>SUM(F6:F10)</f>
+        <v>822</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="23">
+        <f>D13+E12</f>
+        <v>3103.2775076535199</v>
+      </c>
+      <c r="F13" s="1">
+        <f>C4/F12</f>
+        <v>8.1630170316301705</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="1">
+        <f>SUM(H6:H12)</f>
+        <v>6710</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="24"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26">
+        <f>E13+C15</f>
+        <v>3103.2775076535199</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30">
+        <f>D12/$E$3</f>
+        <v>0.4624854705891982</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="36"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="34"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="37">
+        <v>2704</v>
+      </c>
+      <c r="C18" s="38">
+        <v>2704</v>
+      </c>
+      <c r="D18" s="38">
+        <f>B18-C18</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="39">
+        <f>D18*$E$4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="21"/>
+      <c r="C19" s="22">
+        <v>0</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="23">
+        <f>D19+E18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26">
+        <f>E19+C21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30">
+        <f>D18/$E$3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="40"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="41">
+        <f>E3-D6-D12-D18-D36-D30</f>
+        <v>399.66000000000031</v>
+      </c>
+      <c r="C24" s="19">
+        <v>66</v>
+      </c>
+      <c r="D24" s="19">
+        <f>B24-C24</f>
+        <v>333.66000000000031</v>
+      </c>
+      <c r="E24" s="42">
+        <f>D24*$E$4</f>
+        <v>1832.6364127498662</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="23">
+        <f>D25+E24</f>
+        <v>1832.6364127498662</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="24"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="26">
+        <f>E25+C27</f>
+        <v>1832.6364127498662</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="30">
+        <f>D24/$E$3</f>
+        <v>0.27312018073768496</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="40"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="34"/>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="17"/>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="18">
+        <v>8813</v>
+      </c>
+      <c r="C30" s="19">
+        <v>8813</v>
+      </c>
+      <c r="D30" s="19">
+        <f>B30-C30</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="42">
+        <f>D30*$E$4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="45"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="23">
+        <f>D31+E30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="24"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="26">
+        <f>E31+C33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="27">
+        <f>C33-D33</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="28"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="30">
+        <f>D30/$E$3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="36"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="34"/>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="15"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="17"/>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="37">
+        <v>7606</v>
+      </c>
+      <c r="C36" s="38">
+        <v>7606</v>
+      </c>
+      <c r="D36" s="38">
+        <f>B36-C36+J39</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="46">
+        <f>D36*$E$4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="45"/>
+      <c r="C37" s="22">
+        <v>0</v>
+      </c>
+      <c r="D37" s="13">
+        <f>(D36*$E$4*C37)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="26">
+        <f>E36+C38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="27"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="30"/>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="47"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="50"/>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40">
+        <f>C38+C33+C27+C21+C15+C9</f>
+        <v>0</v>
+      </c>
+      <c r="C40" s="51">
+        <f>D6+D12+D18+D24+D30+D36</f>
+        <v>1155.6600000000003</v>
+      </c>
+      <c r="D40" s="52">
+        <f>E8+E14+E20+E26+E32+E37</f>
+        <v>6347.4932468935713</v>
+      </c>
+      <c r="E40" s="1">
+        <f>E36+E30+E24+E18+E12+E6</f>
+        <v>6347.4932468935713</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="C41" s="51"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.27559055118110198" right="0.27559055118110198" top="0.62992125984252012" bottom="0.62992125984252012" header="0.23622047244094502" footer="0.23622047244094502"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BD5A78-A091-4C13-BD52-FCA9A383C4BB}">
   <dimension ref="B1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -1686,7 +2284,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15525587-FB37-462A-BD4E-5020B329252A}">
   <dimension ref="B1:I41"/>
   <sheetViews>
@@ -2225,7 +2823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FE051B-2903-4548-8239-36D3A5335D67}">
   <dimension ref="B1:G41"/>
   <sheetViews>
@@ -2666,7 +3264,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A959A2-5F73-4059-A389-522B93CBC773}">
   <dimension ref="B1:G41"/>
   <sheetViews>
@@ -3107,7 +3705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BFFBC0-F7B8-4903-A44B-45A0DB7C8EA0}">
   <dimension ref="B1:F41"/>
   <sheetViews>
@@ -3550,7 +4148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543129D4-C5A9-407B-907B-48E5E036088C}">
   <dimension ref="B1:F41"/>
   <sheetViews>
@@ -4042,7 +4640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE377DF9-6281-4E26-A9A5-329AD0BCD9C7}">
   <dimension ref="B1:F41"/>
   <sheetViews>
